--- a/biology/Microbiologie/Naegleria/Naegleria.xlsx
+++ b/biology/Microbiologie/Naegleria/Naegleria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naegleria est un genre de Percolozoaires appartenant à l'ordre des Schizophrénides ou encore à la famille des 	Vahlkampfiidés, de même périmètre. Cette famille ne distingue les deux lignées[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naegleria est un genre de Percolozoaires appartenant à l'ordre des Schizophrénides ou encore à la famille des 	Vahlkampfiidés, de même périmètre. Cette famille ne distingue les deux lignées :
 lignées des Vahlkampfiidae s.s.
 clade regroupant les genres Naegleria et Pleurostomum
-On a distingué 47 espèces différentes du genre Naegleria, basées des différences de séquences ARNr[3]. Parmi celles-ci on peut mentionner :
+On a distingué 47 espèces différentes du genre Naegleria, basées des différences de séquences ARNr. Parmi celles-ci on peut mentionner :
 Naegleria fowleri, qui peut causer des encéphalites rares mais mortelles chez l'humain.
 Naegleria gruberi
 </t>
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 mars 2019)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 mars 2019) :
 Naegleria aerobia Singh &amp; Das, 1970
 Naegleria americana De Jonckheere, 2004
 Naegleria andersoni De Jonckheere, 1988
@@ -573,14 +587,14 @@
 Naegleria thorntoni (Singh, 1952) Page, 1976
 Naegleria tihangensis De Jonckheere, 2002
 Naegleria wherryi Lepsi, 1960
-Selon Catalogue of Life                                   (5 mars 2019)[5] et ITIS      (5 mars 2019)[6] :
+Selon Catalogue of Life                                   (5 mars 2019) et ITIS      (5 mars 2019) :
 Naegleria australiensis De Jonckheere, 1981
 Naegleria fowleri Carter, 1970
 Naegleria gruberi Schardinger, 1899
 Naegleria jadini Willaert &amp; Leray, 1973
 Naegleria lovaniensis Steven, &amp; Al., 1980
 Naegleria thorntoni (Singh, 1952) Page, 1976
-Selon NCBI  (5 mars 2019)[7] :
+Selon NCBI  (5 mars 2019) :
 Naegleria americana
 Naegleria andersoni
 Naegleria angularis
